--- a/biology/Médecine/1855_en_santé_et_médecine/1855_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1855_en_santé_et_médecine/1855_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1855_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1855_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1855 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1855_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1855_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'infirmière britannique Florence Nightingale (1820-1910) réforme les standards d'hygiène dans les hôpitaux du front de Crimée.</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1855_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1855_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Filippo Pacini (1812-1883) publie sa découverte du vibrio cholerae effectuée l'année précédente : « Microscopic Observations and Pathological Deductions on Asiatic Cholera », The British and Foreign Medico-Chirurgical Review, vol. 16, no 31,‎ juillet 1855, p. 144–145 (PMCID 5182670, lire en ligne).
 John Snow : On the mode of communication of cholera.</t>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1855_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1855_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>29 mars : Émile Dind (mort en 1932), médecin, enseignant et personnalité politique suisse.
 15 mai : Ji Seok-yeong (mort en 1935), médecin coréen, introducteur de la vaccination contre la variole dans son pays.</t>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1855_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1855_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>7 avril : Joseph Painchaud (né en 1819), médecin et philanthrope canadien.
 29 juin : John Gorrie (né en 1802), médecin américain.
